--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE56781-AA70-4ED7-9863-88E8428C0F13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9BBF24-92B1-4826-9FE1-B0309EA4E989}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="629">
   <si>
     <t/>
   </si>
@@ -2301,6 +2301,10 @@
   </si>
   <si>
     <t>Font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6941,7 +6945,7 @@
         <v>604</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9BBF24-92B1-4826-9FE1-B0309EA4E989}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF83EE4E-9B5D-49F3-9A6A-AF9EE5D484AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="33" r:id="rId1"/>
@@ -47,8 +47,8 @@
     <sheet name="Font" sheetId="40" r:id="rId32"/>
     <sheet name="Structured_Annotations" sheetId="39" r:id="rId33"/>
     <sheet name="XML_Annotation" sheetId="20" r:id="rId34"/>
-    <sheet name="Unit" sheetId="34" r:id="rId35"/>
-    <sheet name="size" sheetId="35" r:id="rId36"/>
+    <sheet name="size" sheetId="35" r:id="rId35"/>
+    <sheet name="width" sheetId="41" r:id="rId36"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="618">
   <si>
     <t/>
   </si>
@@ -966,10 +966,6 @@
     <t>:FillRule</t>
   </si>
   <si>
-    <t>xsd:int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:FontStyle</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1664,10 +1660,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/regionOfInterest/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1692,18 +1684,6 @@
   </si>
   <si>
     <t>[size:10000um]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1714,63 +1694,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1794,10 +1717,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Well:0</t>
   </si>
   <si>
@@ -2184,18 +2103,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:pt</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[size:2pt]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"point"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Structured Annotations</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2216,10 +2123,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PATO:0000117</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[font:shape3]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2296,15 +2199,61 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[size:1pt]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Font</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PATO:0000921</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:1pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[width:2pt]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitLength:pt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2343,7 +2292,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2381,7 +2330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2408,9 +2357,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2737,14 +2683,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2760,7 +2706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2768,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +2722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2784,7 +2730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2792,7 +2738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>209</v>
       </c>
@@ -2800,164 +2746,164 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>443</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>394</v>
+        <v>169</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>616</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -2973,22 +2919,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2999,7 +2945,7 @@
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
@@ -3020,7 +2966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3038,7 +2984,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -3047,7 +2993,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
@@ -3068,7 +3014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3079,13 +3025,13 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>51</v>
@@ -3094,131 +3040,131 @@
         <v>87</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3234,17 +3180,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3252,7 +3198,7 @@
         <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -3261,7 +3207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3272,13 +3218,13 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -3287,7 +3233,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3295,7 +3241,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3304,60 +3250,60 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3372,15 +3318,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3388,26 +3334,26 @@
         <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3415,39 +3361,39 @@
         <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3462,30 +3408,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3495,74 +3441,74 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3577,18 +3523,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3596,7 +3542,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3608,10 +3554,10 @@
         <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3626,13 +3572,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -3644,10 +3590,10 @@
         <v>92</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3655,7 +3601,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3664,24 +3610,24 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>201</v>
@@ -3690,18 +3636,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>201</v>
@@ -3710,9 +3656,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>186</v>
@@ -3721,18 +3667,18 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>205</v>
@@ -3741,35 +3687,35 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>201</v>
@@ -3785,19 +3731,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECB18F3-E882-4E36-A0FB-75B63EECEF7B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3805,16 +3753,16 @@
         <v>130</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3823,22 +3771,22 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -3846,153 +3794,153 @@
         <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C14" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -4008,30 +3956,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4039,41 +3987,41 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4088,42 +4036,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4134,39 +4082,39 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>200</v>
@@ -4178,15 +4126,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="E5" s="1">
         <v>123</v>
@@ -4210,26 +4158,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4238,7 +4186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -4247,23 +4195,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -4278,21 +4226,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4300,10 +4248,10 @@
         <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>102</v>
@@ -4336,7 +4284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4354,49 +4302,49 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4404,19 +4352,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>107</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>53</v>
@@ -4434,30 +4382,30 @@
         <v>53</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -4481,7 +4429,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>176</v>
       </c>
@@ -4492,7 +4440,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>176</v>
       </c>
@@ -4516,17 +4464,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4534,7 +4482,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -4543,7 +4491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4552,13 +4500,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
@@ -4567,7 +4515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4575,7 +4523,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
@@ -4584,12 +4532,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>171</v>
@@ -4610,17 +4558,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4628,7 +4576,7 @@
         <v>111</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>59</v>
@@ -4637,7 +4585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4646,13 +4594,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>65</v>
@@ -4661,7 +4609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4669,7 +4617,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>71</v>
@@ -4678,46 +4626,46 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4730,19 +4678,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CE237C-AB63-40B4-966E-35E4011ACA25}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4753,14 +4699,14 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -4769,7 +4715,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4780,7 +4726,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>210</v>
       </c>
@@ -4788,7 +4734,7 @@
         <v>-1147483648</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
@@ -4796,7 +4742,7 @@
         <v>-1474836488</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>212</v>
       </c>
@@ -4804,7 +4750,7 @@
         <v>-2144364811</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>216</v>
       </c>
@@ -4812,57 +4758,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C10" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C11" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C14" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="1">
         <v>-2147483648</v>
@@ -4880,17 +4826,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4907,7 +4853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4916,7 +4862,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -4931,7 +4877,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -4945,10 +4891,10 @@
         <v>120</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>180</v>
       </c>
@@ -4962,7 +4908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>182</v>
       </c>
@@ -4976,7 +4922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>184</v>
       </c>
@@ -5002,16 +4948,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5019,7 +4965,7 @@
         <v>121</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -5028,7 +4974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5039,13 +4985,13 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -5054,7 +5000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -5062,7 +5008,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -5071,23 +5017,23 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>221</v>
@@ -5096,34 +5042,34 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>227</v>
@@ -5141,15 +5087,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5160,14 +5106,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -5176,7 +5122,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -5187,7 +5133,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>225</v>
@@ -5196,7 +5142,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>222</v>
       </c>
@@ -5204,7 +5150,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>223</v>
       </c>
@@ -5212,7 +5158,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>223</v>
       </c>
@@ -5220,7 +5166,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>223</v>
       </c>
@@ -5228,7 +5174,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>223</v>
       </c>
@@ -5236,7 +5182,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>223</v>
       </c>
@@ -5244,7 +5190,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>223</v>
       </c>
@@ -5252,7 +5198,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>223</v>
       </c>
@@ -5260,7 +5206,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>223</v>
       </c>
@@ -5268,7 +5214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>224</v>
       </c>
@@ -5276,7 +5222,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>227</v>
       </c>
@@ -5284,7 +5230,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>227</v>
       </c>
@@ -5304,24 +5250,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5329,7 +5275,7 @@
         <v>134</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>245</v>
@@ -5344,7 +5290,7 @@
         <v>250</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>254</v>
@@ -5362,7 +5308,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5379,13 +5325,13 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>246</v>
@@ -5400,7 +5346,7 @@
         <v>260</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>264</v>
@@ -5418,7 +5364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -5426,7 +5372,7 @@
         <v>138</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>114</v>
@@ -5435,22 +5381,22 @@
         <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>269</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>606</v>
+      <c r="K4" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>200</v>
@@ -5459,12 +5405,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5476,12 +5422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5490,33 +5436,33 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5525,9 +5471,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -5536,9 +5482,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -5547,9 +5493,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -5558,9 +5504,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5569,9 +5515,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5580,9 +5526,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5591,9 +5537,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5602,9 +5548,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5613,9 +5559,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5624,9 +5570,9 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5635,9 +5581,9 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5658,19 +5604,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5678,13 +5624,13 @@
         <v>139</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>140</v>
@@ -5699,10 +5645,10 @@
         <v>257</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5716,13 +5662,13 @@
       <c r="I2" s="5"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>137</v>
@@ -5743,10 +5689,10 @@
         <v>267</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -5754,7 +5700,7 @@
         <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>114</v>
@@ -5769,21 +5715,21 @@
         <v>114</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5798,13 +5744,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I5" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5819,41 +5765,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -5865,36 +5811,36 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>621</v>
+        <v>599</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>114</v>
@@ -5915,9 +5861,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5950,19 +5896,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5970,25 +5916,25 @@
         <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>250</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6000,13 +5946,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>137</v>
@@ -6018,13 +5964,13 @@
         <v>260</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -6032,7 +5978,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>114</v>
@@ -6041,21 +5987,21 @@
         <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -6064,21 +6010,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="H5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6087,15 +6033,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6104,15 +6050,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -6121,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -6136,18 +6082,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6155,7 +6101,7 @@
         <v>147</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>148</v>
@@ -6167,7 +6113,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6177,13 +6123,13 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>149</v>
@@ -6195,7 +6141,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -6203,57 +6149,57 @@
         <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>283</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6268,16 +6214,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6285,7 +6231,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>33</v>
@@ -6294,7 +6240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6303,13 +6249,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
@@ -6318,7 +6264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -6326,7 +6272,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>35</v>
@@ -6335,12 +6281,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>174</v>
@@ -6361,19 +6307,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6381,7 +6327,7 @@
         <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>148</v>
@@ -6399,7 +6345,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6411,13 +6357,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>149</v>
@@ -6435,7 +6381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -6443,7 +6389,7 @@
         <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>138</v>
@@ -6455,101 +6401,101 @@
         <v>157</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>271</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>290</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>291</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6562,21 +6508,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF61F8E1-32E5-4F92-A444-A3D578720F61}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -6584,7 +6532,7 @@
         <v>158</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>161</v>
@@ -6611,7 +6559,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6626,13 +6574,13 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>165</v>
@@ -6659,7 +6607,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -6667,7 +6615,7 @@
         <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>114</v>
@@ -6688,18 +6636,18 @@
         <v>157</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6714,24 +6662,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6746,21 +6694,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>281</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6775,13 +6723,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
+        <v>282</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -6796,21 +6744,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>253</v>
@@ -6822,7 +6770,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -6831,7 +6779,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -6846,50 +6794,50 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -6903,145 +6851,145 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -7057,16 +7005,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7074,13 +7022,13 @@
         <v>125</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7088,19 +7036,19 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7114,26 +7062,26 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -7143,162 +7091,151 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A73FDD8-239D-4A2B-A113-EBCEDD75419D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3076EAC1-715D-4F3A-95C7-67C990BD2B9F}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>467</v>
-      </c>
-      <c r="C5" t="s">
-        <v>468</v>
-      </c>
-      <c r="D5" t="s">
-        <v>469</v>
-      </c>
-      <c r="E5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>178</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5">
+        <v>100000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>600</v>
+        <v>579</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3076EAC1-715D-4F3A-95C7-67C990BD2B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CDF341-D30B-4A51-9D60-09573766E5E1}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>471</v>
+        <v>609</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>214</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>472</v>
+        <v>610</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -7307,54 +7244,43 @@
         <v>215</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>453</v>
+        <v>608</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>178</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="C5">
-        <v>100000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>598</v>
+      <c r="D6" s="4" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -7370,19 +7296,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7390,7 +7316,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>37</v>
@@ -7405,7 +7331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7416,13 +7342,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -7431,13 +7357,13 @@
         <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7445,7 +7371,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
@@ -7454,18 +7380,18 @@
         <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>176</v>
@@ -7480,7 +7406,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>174</v>
       </c>
@@ -7488,7 +7414,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>174</v>
       </c>
@@ -7508,27 +7434,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>606</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>195</v>
@@ -7543,7 +7469,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7554,13 +7480,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>194</v>
@@ -7575,7 +7501,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7583,7 +7509,7 @@
         <v>207</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -7598,73 +7524,73 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -7679,19 +7605,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7699,7 +7625,7 @@
         <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -7714,7 +7640,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7727,13 +7653,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -7748,7 +7674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7756,7 +7682,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -7771,32 +7697,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>173</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -7812,19 +7738,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7832,7 +7758,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>59</v>
@@ -7850,7 +7776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7862,13 +7788,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>65</v>
@@ -7886,7 +7812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -7894,7 +7820,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>71</v>
@@ -7912,18 +7838,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -7932,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7947,17 +7873,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -7965,7 +7891,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>33</v>
@@ -7974,7 +7900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -7983,13 +7909,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
@@ -7998,7 +7924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -8006,7 +7932,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>35</v>
@@ -8015,15 +7941,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -8041,17 +7967,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -8059,7 +7985,7 @@
         <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -8068,7 +7994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -8079,13 +8005,13 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -8094,7 +8020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -8102,7 +8028,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -8111,18 +8037,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF83EE4E-9B5D-49F3-9A6A-AF9EE5D484AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B30F5-1C2D-48E4-9E99-BCB8A3DE6358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="828" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="33" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Plate" sheetId="6" r:id="rId6"/>
     <sheet name="Well" sheetId="7" r:id="rId7"/>
     <sheet name="Well_Sample" sheetId="8" r:id="rId8"/>
-    <sheet name="Plate_Acquision" sheetId="9" r:id="rId9"/>
+    <sheet name="Plate_Acquisition" sheetId="9" r:id="rId9"/>
     <sheet name="Screen" sheetId="10" r:id="rId10"/>
     <sheet name="Reagent_Set" sheetId="11" r:id="rId11"/>
     <sheet name="Reagent" sheetId="12" r:id="rId12"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="674">
   <si>
     <t/>
   </si>
@@ -290,9 +290,6 @@
     <t>:index</t>
   </si>
   <si>
-    <t>Plate Acquision</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -578,18 +575,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[dataset:project:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnoation:project0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[xmlAnnotation:dataset:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -598,10 +583,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -610,38 +591,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[channel:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2012-03-05T02:48:38</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>roi:roi1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -697,30 +650,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[experimenter:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[experimenter:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>foaf:Person</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -815,58 +744,6 @@
     <t>:Shape</t>
   </si>
   <si>
-    <t>[point:shape1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape12]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape13]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[rectangle:shape2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[label:shape3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polygon:shape4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polyline:shape5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[polyline:shape6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[line:shape9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -998,10 +875,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[transform:ractangle:shape2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:FontFamily</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1022,22 +895,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape4:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape4:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:16]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1054,38 +911,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[point:shape5:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape5:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[point:shape6:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plate:plate0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1098,30 +923,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[well:well0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[plateAcquisition:plate0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[wellSample:well0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[xmlAnnotation:dataset:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>screen:screen0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1176,46 +985,6 @@
     <t>Protocol</t>
   </si>
   <si>
-    <t>[timestampAnnotation:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:4]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:5]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:6]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:7]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:10]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:11]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[timestampAnnotation:9]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"Screen 0 Description"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1232,38 +1001,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[protocol:screen0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[reagentSet:screen0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[reagentSet:screen1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[reagentSet:screen2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[reagentSet:screen3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[protocol:screen3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>:Protocol</t>
   </si>
   <si>
@@ -1650,10 +1387,6 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/timestampannotation/image/</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>unit</t>
@@ -2032,10 +1765,6 @@
     <t>Instrument:0</t>
   </si>
   <si>
-    <t>[objective:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -2123,10 +1852,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[font:shape3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>font</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2192,10 +1917,6 @@
   </si>
   <si>
     <t>:AffineTransform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[font:shape1]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2254,6 +1975,497 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/image/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/dataset/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/person/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/well/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/wellSample/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/plateAcquisition/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Plate Acquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/reagentSet/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/protocol/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/timestampAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>roi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/objective/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/point/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/rectangle/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/transform/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/label/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/polygon/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/polyline/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/line/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/font/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/xmlAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dataset:project0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:dataset0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>person:experimenter6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>well:well0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>plateAcquisition:plate0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>wellSample:well0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:dataset1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>reagentSet:screen3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>protocol:screen3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestampAnnotation:timestampAnnotation11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape0</t>
+  </si>
+  <si>
+    <t>point:shape1</t>
+  </si>
+  <si>
+    <t>rectangle:shape2</t>
+  </si>
+  <si>
+    <t>label:shape3</t>
+  </si>
+  <si>
+    <t>polygon:shape4</t>
+  </si>
+  <si>
+    <t>polyline:shape5</t>
+  </si>
+  <si>
+    <t>polyline:shape6</t>
+  </si>
+  <si>
+    <t>line:shape7</t>
+  </si>
+  <si>
+    <t>line:shape8</t>
+  </si>
+  <si>
+    <t>line:shape9</t>
+  </si>
+  <si>
+    <t>label:shape11</t>
+  </si>
+  <si>
+    <t>label:shape12</t>
+  </si>
+  <si>
+    <t>label:shape13</t>
+  </si>
+  <si>
+    <t>point:shape4.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape5.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape6.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rectangle:shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transform:rectangle_shape2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>font:shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>label:shape13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>polygon:shape4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>point:shape4.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>line:shape9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:project0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2679,14 +2891,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2740,170 +2952,346 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>577</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>546</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>444</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>389</v>
+        <v>171</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>390</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>446</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>447</v>
+        <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>448</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>327</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>616</v>
+        <v>168</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>617</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -2926,11 +3314,11 @@
     <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2939,28 +3327,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>18</v>
@@ -2993,22 +3381,22 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>26</v>
@@ -3019,28 +3407,28 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>31</v>
@@ -3048,123 +3436,123 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>480</v>
+        <v>413</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>484</v>
+        <v>417</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>607</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>337</v>
+        <v>611</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>308</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>481</v>
+        <v>414</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>340</v>
+        <v>608</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>338</v>
+        <v>612</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>308</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>482</v>
+        <v>415</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>486</v>
+        <v>419</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>341</v>
+        <v>609</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>343</v>
+        <v>613</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>308</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>483</v>
+        <v>416</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>487</v>
+        <v>420</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>342</v>
+        <v>610</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>344</v>
+        <v>614</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>308</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3571,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -3195,10 +3583,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -3224,7 +3612,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -3238,10 +3626,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3252,58 +3640,58 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>607</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>488</v>
+        <v>421</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>340</v>
+        <v>608</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>341</v>
+        <v>609</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>490</v>
+        <v>423</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>342</v>
+        <v>610</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>491</v>
+        <v>424</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3331,10 +3719,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3350,7 +3738,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3361,39 +3749,39 @@
         <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>493</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>494</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3411,7 +3799,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
@@ -3422,10 +3810,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -3447,7 +3835,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -3458,10 +3846,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>345</v>
+        <v>279</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3469,46 +3857,46 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>337</v>
+        <v>611</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>612</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>497</v>
+        <v>430</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>613</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>498</v>
+        <v>431</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>614</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>499</v>
+        <v>432</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3918,7 @@
     <col min="3" max="3" width="27.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3539,10 +3927,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -3551,10 +3939,10 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3578,7 +3966,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
@@ -3587,10 +3975,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3598,10 +3986,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -3610,115 +3998,115 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>500</v>
+        <v>433</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>201</v>
+        <v>597</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>206</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>201</v>
+        <v>597</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>202</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>596</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>203</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>205</v>
+        <v>602</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>204</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>503</v>
+        <v>436</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>201</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>504</v>
+        <v>437</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>201</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -3731,17 +4119,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECB18F3-E882-4E36-A0FB-75B63EECEF7B}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3750,16 +4136,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3777,13 +4163,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3791,156 +4177,156 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>323</v>
+        <v>615</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>438</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>324</v>
+        <v>616</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>541</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>325</v>
+        <v>617</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>542</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>508</v>
+        <v>441</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>619</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>328</v>
+        <v>620</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>621</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>622</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>623</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>331</v>
+        <v>624</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +4347,7 @@
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3970,13 +4356,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3993,10 +4379,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4004,24 +4390,24 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>557</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>558</v>
+        <v>491</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>559</v>
+        <v>492</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -4038,8 +4424,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -4053,22 +4438,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>562</v>
+        <v>494</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>572</v>
+        <v>504</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>563</v>
+        <v>495</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>564</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -4088,19 +4473,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>565</v>
+        <v>497</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>573</v>
+        <v>505</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>566</v>
+        <v>498</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>567</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -4108,33 +4493,33 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>568</v>
+        <v>500</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>569</v>
+        <v>501</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>570</v>
+        <v>502</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>571</v>
+        <v>503</v>
       </c>
       <c r="E5" s="1">
         <v>123</v>
@@ -4171,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -4200,7 +4585,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>29</v>
@@ -4208,10 +4593,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>571</v>
+        <v>503</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>576</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4235,8 +4620,8 @@
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4245,43 +4630,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -4308,40 +4693,40 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>450</v>
+        <v>383</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -4352,19 +4737,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>53</v>
@@ -4382,30 +4767,30 @@
         <v>53</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>595</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -4423,32 +4808,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>179</v>
+        <v>626</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>180</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>595</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>181</v>
+        <v>627</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>182</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>595</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>183</v>
+        <v>628</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>184</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -4469,8 +4854,8 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4482,7 +4867,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>17</v>
@@ -4506,7 +4891,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
@@ -4523,7 +4908,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>30</v>
@@ -4534,21 +4919,22 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>171</v>
+        <v>593</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4561,7 +4947,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -4573,16 +4959,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4600,13 +4986,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -4614,58 +5000,58 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>626</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>627</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>628</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4693,10 +5079,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -4712,7 +5098,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -4723,12 +5109,12 @@
         <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1">
         <v>-1147483648</v>
@@ -4736,7 +5122,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1">
         <v>-1474836488</v>
@@ -4744,7 +5130,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1">
         <v>-2144364811</v>
@@ -4752,7 +5138,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4760,7 +5146,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="C9" s="1">
         <v>17</v>
@@ -4768,7 +5154,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1">
         <v>171</v>
@@ -4776,7 +5162,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="C11" s="1">
         <v>172</v>
@@ -4784,7 +5170,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
@@ -4792,7 +5178,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
@@ -4800,7 +5186,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1">
         <v>161</v>
@@ -4808,7 +5194,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="C15" s="1">
         <v>-2147483648</v>
@@ -4829,7 +5215,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -4841,16 +5227,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4868,13 +5254,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -4882,27 +5268,27 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>578</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>629</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -4910,13 +5296,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>630</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -4924,13 +5310,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>631</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -4962,16 +5348,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4991,13 +5377,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -5008,71 +5394,71 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>535</v>
+        <v>468</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>538</v>
+        <v>471</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>539</v>
+        <v>472</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +5477,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5100,10 +5486,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5119,7 +5505,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5127,115 +5513,115 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>233</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>237</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>238</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>239</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>241</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>242</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>244</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>234</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>235</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>236</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5252,18 +5638,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5272,40 +5657,40 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -5331,37 +5716,37 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -5369,37 +5754,37 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>607</v>
+        <v>537</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>54</v>
@@ -5407,10 +5792,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>233</v>
+        <v>632</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5424,10 +5809,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>633</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5436,25 +5821,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>603</v>
+        <v>657</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>612</v>
+        <v>542</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -5462,7 +5847,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>284</v>
+        <v>645</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5473,7 +5858,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>646</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -5484,7 +5869,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>647</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -5495,7 +5880,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>648</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -5506,7 +5891,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>292</v>
+        <v>649</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5517,7 +5902,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>650</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5528,7 +5913,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>651</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5539,7 +5924,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>652</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5550,7 +5935,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>296</v>
+        <v>653</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5561,7 +5946,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>654</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5572,7 +5957,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>298</v>
+        <v>655</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5583,7 +5968,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>656</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5621,31 +6006,31 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -5668,28 +6053,28 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -5697,39 +6082,39 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>658</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5744,13 +6129,13 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="I5" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>278</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -5778,25 +6163,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>589</v>
+        <v>520</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>590</v>
+        <v>521</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>591</v>
+        <v>522</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>592</v>
+        <v>523</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>595</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5817,22 +6202,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>596</v>
+        <v>527</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>597</v>
+        <v>528</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>599</v>
+        <v>530</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>601</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5840,30 +6225,30 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>602</v>
+        <v>533</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>659</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -5899,12 +6284,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5913,25 +6298,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>586</v>
+        <v>517</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5952,22 +6337,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5975,33 +6360,33 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>661</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -6010,21 +6395,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="H5" t="s">
-        <v>525</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>662</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>526</v>
+        <v>459</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6033,15 +6418,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>235</v>
+        <v>663</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6050,15 +6435,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>236</v>
+        <v>664</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -6067,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -6085,11 +6470,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6098,19 +6483,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6129,16 +6514,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -6146,60 +6531,60 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>607</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>665</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>284</v>
+        <v>666</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>665</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>665</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>286</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>239</v>
+        <v>665</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>287</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -6216,7 +6601,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
@@ -6231,7 +6617,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>33</v>
@@ -6255,7 +6641,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
@@ -6272,7 +6658,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>35</v>
@@ -6283,16 +6669,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>593</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -6309,13 +6695,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6324,25 +6710,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -6363,22 +6749,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -6386,116 +6772,116 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>607</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>637</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>292</v>
+        <v>649</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>637</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>295</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>637</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>294</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>637</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>293</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>241</v>
+        <v>638</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>296</v>
+        <v>653</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>638</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>297</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>638</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>298</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>638</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>299</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6508,9 +6894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF61F8E1-32E5-4F92-A444-A3D578720F61}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6529,34 +6913,34 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -6580,31 +6964,31 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -6612,42 +6996,42 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>611</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>670</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -6662,24 +7046,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>671</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -6694,21 +7078,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>672</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -6723,13 +7107,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -6747,7 +7131,7 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
@@ -6758,16 +7142,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>604</v>
+        <v>534</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -6785,13 +7169,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -6799,43 +7183,43 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>588</v>
+        <v>519</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>603</v>
+        <v>657</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>434</v>
+        <v>368</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -6853,9 +7237,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -6863,10 +7247,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>580</v>
+        <v>512</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -6882,7 +7266,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>582</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -6890,106 +7274,106 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>583</v>
+        <v>515</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>605</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>308</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>323</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>324</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>325</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>327</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>328</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>329</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>332</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>330</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>584</v>
+        <v>516</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>331</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -7008,7 +7392,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -7019,13 +7403,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7042,10 +7426,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -7053,35 +7437,35 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>673</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>594</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7112,13 +7496,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>454</v>
+        <v>387</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7126,13 +7510,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>455</v>
+        <v>388</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -7141,10 +7525,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -7152,35 +7536,35 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>614</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>579</v>
+        <v>511</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>615</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7212,13 +7596,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>609</v>
+        <v>539</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>445</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7226,13 +7610,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>453</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -7241,10 +7625,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>457</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -7252,35 +7636,35 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>608</v>
+        <v>538</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>612</v>
+        <v>542</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>615</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>613</v>
+        <v>543</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>615</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7303,7 +7687,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -7316,7 +7700,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>37</v>
@@ -7348,7 +7732,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -7357,7 +7741,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>42</v>
@@ -7371,7 +7755,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>43</v>
@@ -7380,7 +7764,7 @@
         <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>45</v>
@@ -7388,38 +7772,38 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>596</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7437,36 +7821,36 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>606</v>
+        <v>536</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -7486,19 +7870,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7506,10 +7890,10 @@
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -7521,76 +7905,76 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>186</v>
+        <v>596</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>464</v>
+        <v>397</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>201</v>
+      <c r="B6" s="4" t="s">
+        <v>597</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>465</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>202</v>
+      <c r="B7" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>203</v>
+      <c r="B8" s="4" t="s">
+        <v>599</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>467</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>204</v>
+      <c r="B9" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>468</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>206</v>
+      <c r="B10" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>469</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>205</v>
+      <c r="B11" s="4" t="s">
+        <v>602</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -7611,9 +7995,9 @@
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7625,7 +8009,7 @@
         <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -7659,7 +8043,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -7682,7 +8066,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -7699,30 +8083,30 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>603</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>173</v>
+        <v>594</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>304</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -7741,12 +8125,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7758,7 +8142,7 @@
         <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>59</v>
@@ -7794,7 +8178,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>65</v>
@@ -7820,7 +8204,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>71</v>
@@ -7840,16 +8224,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>603</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>306</v>
+        <v>605</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -7858,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -7876,7 +8260,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -7891,7 +8275,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>33</v>
@@ -7915,7 +8299,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
@@ -7932,7 +8316,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>35</v>
@@ -7943,13 +8327,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>605</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>477</v>
+        <v>410</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -7970,10 +8354,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7982,10 +8366,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>559</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -8011,7 +8395,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>24</v>
@@ -8028,7 +8412,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
@@ -8039,16 +8423,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>604</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>308</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/timestampannotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2B30F5-1C2D-48E4-9E99-BCB8A3DE6358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DA9937-E46F-4FEF-8410-CCB1D1B41327}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="828" xr2:uid="{C6B75B17-5428-4C4B-A6CE-ABEAA0DB8C5D}"/>
   </bookViews>
@@ -62,9 +62,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="674">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -137,39 +134,18 @@
     <t>rdfs:comment</t>
   </si>
   <si>
-    <t>:dataset</t>
-  </si>
-  <si>
-    <t>:annotation</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Project</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Dataset</t>
-  </si>
-  <si>
-    <t>:Annotation</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
     <t>image</t>
   </si>
   <si>
-    <t>:image</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -182,24 +158,9 @@
     <t>region of interest</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:regionOfInterest</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
-    <t>:RegionOfInterest</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
@@ -209,15 +170,6 @@
     <t>plate acquisition</t>
   </si>
   <si>
-    <t>:well</t>
-  </si>
-  <si>
-    <t>:plateAcquisition</t>
-  </si>
-  <si>
-    <t>:Plate</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
@@ -227,12 +179,6 @@
     <t>xsd:nonNegativeInteger</t>
   </si>
   <si>
-    <t>:Well</t>
-  </si>
-  <si>
-    <t>:PlateAcquisition</t>
-  </si>
-  <si>
     <t>Well</t>
   </si>
   <si>
@@ -254,42 +200,12 @@
     <t>column</t>
   </si>
   <si>
-    <t>:reagent</t>
-  </si>
-  <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:wellSample</t>
-  </si>
-  <si>
-    <t>:row</t>
-  </si>
-  <si>
-    <t>:wellType</t>
-  </si>
-  <si>
-    <t>:column</t>
-  </si>
-  <si>
-    <t>:Reagent</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:WellSample</t>
-  </si>
-  <si>
     <t>Well Sample</t>
   </si>
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>:index</t>
-  </si>
-  <si>
     <t>Screen</t>
   </si>
   <si>
@@ -305,24 +221,6 @@
     <t>protocol</t>
   </si>
   <si>
-    <t>:screenType</t>
-  </si>
-  <si>
-    <t>:plate</t>
-  </si>
-  <si>
-    <t>:reagentSet</t>
-  </si>
-  <si>
-    <t>:protocol</t>
-  </si>
-  <si>
-    <t>:Screen</t>
-  </si>
-  <si>
-    <t>:ReagentSet</t>
-  </si>
-  <si>
     <t>Reagent Set</t>
   </si>
   <si>
@@ -335,12 +233,6 @@
     <t>leader</t>
   </si>
   <si>
-    <t>:leader</t>
-  </si>
-  <si>
-    <t>:ExperimenterGroup</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -377,30 +269,15 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>acquisition mode</t>
   </si>
   <si>
-    <t>:acquisitionMode</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -413,12 +290,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -428,9 +299,6 @@
     <t>union</t>
   </si>
   <si>
-    <t>:union</t>
-  </si>
-  <si>
     <t>rdf:Bag</t>
   </si>
   <si>
@@ -440,12 +308,6 @@
     <t>XML annotation value</t>
   </si>
   <si>
-    <t>:XMLAnnotationValue</t>
-  </si>
-  <si>
-    <t>:XMLAnnotation</t>
-  </si>
-  <si>
     <t>rdf:XMLLiteral</t>
   </si>
   <si>
@@ -455,27 +317,12 @@
     <t>timestamp annotation value</t>
   </si>
   <si>
-    <t>:timestampAnnotationValue</t>
-  </si>
-  <si>
-    <t>:TimestampAnnotation</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>:y</t>
-  </si>
-  <si>
-    <t>:x</t>
-  </si>
-  <si>
-    <t>:Point</t>
-  </si>
-  <si>
     <t>Rectangle</t>
   </si>
   <si>
@@ -485,33 +332,15 @@
     <t>width</t>
   </si>
   <si>
-    <t>:height</t>
-  </si>
-  <si>
-    <t>:width</t>
-  </si>
-  <si>
-    <t>:Rectangle</t>
-  </si>
-  <si>
     <t>Label</t>
   </si>
   <si>
-    <t>:Label</t>
-  </si>
-  <si>
     <t>Polygon</t>
   </si>
   <si>
     <t>point</t>
   </si>
   <si>
-    <t>:point</t>
-  </si>
-  <si>
-    <t>:Polygon</t>
-  </si>
-  <si>
     <t>Polyline</t>
   </si>
   <si>
@@ -521,18 +350,6 @@
     <t>marker start</t>
   </si>
   <si>
-    <t>:markerEnd</t>
-  </si>
-  <si>
-    <t>:markerStart</t>
-  </si>
-  <si>
-    <t>:Polyline</t>
-  </si>
-  <si>
-    <t>:Marker</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -548,21 +365,6 @@
     <t>y1</t>
   </si>
   <si>
-    <t>:x2</t>
-  </si>
-  <si>
-    <t>:y2</t>
-  </si>
-  <si>
-    <t>:x1</t>
-  </si>
-  <si>
-    <t>:y1</t>
-  </si>
-  <si>
-    <t>:Line</t>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/timestampannotation/project/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -688,10 +490,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:AcquisitionMode</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/wCrzur//wB5oMPi/wBIbJO3AP8ePGCF</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -741,21 +539,10 @@
     <t>rdf:li</t>
   </si>
   <si>
-    <t>:Shape</t>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:x</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:y</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -800,57 +587,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:fillColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontSize</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:fontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeColor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeDashArray</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:strokeWidth</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:theC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-  </si>
-  <si>
-    <t>:FontStyle</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:1]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -863,22 +599,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:tramsform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FillRule</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Transform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:FontFamily</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:17]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1001,9 +721,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Protocol</t>
-  </si>
-  <si>
     <t>"Reagents Set XYZ"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1068,10 +785,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:experimenter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>experimenterGroup:experimenterGroup1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1128,10 +841,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:nameSpace</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1996-03-23T14:45:00</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1258,62 +967,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Protocol</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitionMode:laserScanningConfocalMicroscopy</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1406,10 +1059,6 @@
   </si>
   <si>
     <t>pixel type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:pixelType</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1679,10 +1328,6 @@
     <t>Shape:9</t>
   </si>
   <si>
-    <t>:Color</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ROI:0</t>
   </si>
   <si>
@@ -1736,10 +1381,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:experimenter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Instrument</t>
   </si>
   <si>
@@ -1747,17 +1388,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1778,23 +1408,6 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Objective:0</t>
   </si>
   <si>
@@ -1806,16 +1419,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>"OME Labs"@en</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1840,14 +1446,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:StructuredAnnotations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[structuredAnnotation:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1856,14 +1454,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Affine Transform</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1892,39 +1482,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:a00</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:a12</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:AffineTransform</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Font</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2466,6 +2024,522 @@
   </si>
   <si>
     <t>xmlAnnotation:project0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Project</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dataset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:experimenter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:regionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:RegionOfInterest</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Well</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PlateAcquisition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:WellSample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:row</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:nonNegativeInteger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:column</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:wellType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:index</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Screen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:screenType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:plate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ReagentSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Reagent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Protocol</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExperimenterGroup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:leader</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TimestampAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:timestampAnnotationValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nameSpace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AcquisitionMode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:union</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Shape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Font</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeDashArray</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:strokeWidth</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:theC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Rectangle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:height</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:width</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:tramsform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Transform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:AffineTransform</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a00</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a01</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:a12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Label</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FillRule</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polygon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:point</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Polyline</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerStart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Marker</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:markerEnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:x2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontStyle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FontFamily</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:fontSize</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StructuredAnnotations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotationValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>English Attribution</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2904,394 +2978,394 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>509</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>372</v>
+        <v>268</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>377</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>546</v>
+        <v>417</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>547</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>548</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>381</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>549</v>
+        <v>420</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>550</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>551</v>
+        <v>422</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>552</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>553</v>
+        <v>424</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>554</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>556</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>557</v>
+        <v>428</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>558</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>560</v>
+        <v>431</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>561</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>562</v>
+        <v>433</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>563</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>564</v>
+        <v>435</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>565</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>566</v>
+        <v>437</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>580</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>567</v>
+        <v>438</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>581</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>568</v>
+        <v>439</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>582</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>569</v>
+        <v>440</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>570</v>
+        <v>441</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>571</v>
+        <v>442</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>584</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>572</v>
+        <v>443</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>585</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>573</v>
+        <v>444</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>586</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>574</v>
+        <v>445</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>587</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>575</v>
+        <v>446</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>588</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>576</v>
+        <v>447</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>589</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>577</v>
+        <v>448</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>578</v>
+        <v>449</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>591</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>579</v>
+        <v>450</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>592</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3388,7 @@
     <col min="3" max="3" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -3324,47 +3398,47 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3374,185 +3448,185 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>574</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>575</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>83</v>
+        <v>576</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>84</v>
+        <v>578</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>85</v>
+        <v>573</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>559</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>86</v>
+        <v>577</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>345</v>
+        <v>579</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>308</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>275</v>
+        <v>188</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>417</v>
+        <v>312</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>607</v>
+        <v>478</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>606</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>271</v>
+        <v>184</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>278</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>418</v>
+        <v>313</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>606</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>609</v>
+        <v>480</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>606</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>606</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -3572,126 +3646,126 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>577</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>607</v>
+        <v>478</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>421</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>422</v>
+        <v>317</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>609</v>
+        <v>480</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3716,72 +3790,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>581</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>425</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>426</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>427</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>428</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3807,96 +3881,96 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>279</v>
+        <v>582</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>324</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>431</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3924,189 +3998,189 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>584</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>296</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>583</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>597</v>
+        <v>468</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>601</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>434</v>
+        <v>329</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>597</v>
+        <v>468</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>598</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>208</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>599</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>602</v>
+        <v>473</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>600</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>436</v>
+        <v>331</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>597</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>437</v>
+        <v>332</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>597</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4126,31 +4200,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>310</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4159,174 +4233,174 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>586</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>311</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>585</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>438</v>
+        <v>333</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>473</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>439</v>
+        <v>334</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>312</v>
+        <v>222</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>474</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>617</v>
+        <v>488</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>440</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>475</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>618</v>
+        <v>489</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>441</v>
+        <v>336</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>314</v>
+        <v>224</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>476</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>619</v>
+        <v>490</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>442</v>
+        <v>337</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>477</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>620</v>
+        <v>491</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>443</v>
+        <v>338</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>478</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>621</v>
+        <v>492</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>444</v>
+        <v>339</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>479</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>480</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>623</v>
+        <v>494</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>446</v>
+        <v>341</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>481</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>624</v>
+        <v>495</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>447</v>
+        <v>342</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>482</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -4344,30 +4418,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>486</v>
+        <v>379</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>487</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4375,39 +4449,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>488</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>489</v>
+        <v>588</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>490</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>491</v>
+        <v>381</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>492</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>625</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -4424,41 +4498,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>493</v>
+        <v>383</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>494</v>
+        <v>384</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>504</v>
+        <v>389</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>495</v>
+        <v>385</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>496</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4469,57 +4544,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>497</v>
+        <v>592</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>505</v>
+        <v>594</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>498</v>
+        <v>595</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>499</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>500</v>
+        <v>591</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>625</v>
+        <v>496</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>502</v>
+        <v>387</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>503</v>
+        <v>388</v>
       </c>
       <c r="E5" s="1">
         <v>123</v>
@@ -4553,50 +4628,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>506</v>
+        <v>390</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>507</v>
+        <v>597</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>503</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>508</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4614,11 +4689,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -4627,51 +4702,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4689,108 +4764,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>598</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>346</v>
+        <v>600</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>348</v>
+        <v>602</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>349</v>
+        <v>603</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>350</v>
+        <v>604</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>351</v>
+        <v>605</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>352</v>
+        <v>606</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>353</v>
+        <v>607</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>354</v>
+        <v>608</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>355</v>
+        <v>609</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>357</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>554</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>599</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>347</v>
+        <v>601</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>356</v>
+        <v>610</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>358</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>363</v>
+        <v>259</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
@@ -4808,32 +4883,32 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>626</v>
+        <v>497</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>629</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>627</v>
+        <v>498</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>630</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>628</v>
+        <v>499</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>631</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4855,30 +4930,30 @@
     <col min="2" max="2" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4887,48 +4962,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>547</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>546</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>549</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>593</v>
+        <v>464</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>673</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4956,24 +5031,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4982,76 +5057,76 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>564</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>109</v>
+        <v>613</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>565</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>199</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>626</v>
+        <v>497</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>344</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>627</v>
+        <v>498</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>628</v>
+        <v>499</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>451</v>
+        <v>346</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5076,45 +5151,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>565</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1">
         <v>-1147483648</v>
@@ -5122,7 +5197,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1">
         <v>-1474836488</v>
@@ -5130,7 +5205,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1">
         <v>-2144364811</v>
@@ -5138,7 +5213,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -5146,7 +5221,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="C9" s="1">
         <v>17</v>
@@ -5154,7 +5229,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1">
         <v>171</v>
@@ -5162,7 +5237,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1">
         <v>172</v>
@@ -5170,7 +5245,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
@@ -5178,7 +5253,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>252</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
@@ -5186,7 +5261,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1">
         <v>161</v>
@@ -5194,7 +5269,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1">
         <v>-2147483648</v>
@@ -5210,38 +5285,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445511F9-B733-42B0-88C2-33AED2AEC3D1}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5250,45 +5327,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>105</v>
+        <v>617</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>618</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>108</v>
+        <v>616</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>510</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>629</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -5296,13 +5373,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>630</v>
+        <v>501</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -5310,13 +5387,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>631</v>
+        <v>502</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
@@ -5337,128 +5414,129 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>558</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>468</v>
+        <v>362</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>469</v>
+        <v>363</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>470</v>
+        <v>364</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>472</v>
+        <v>366</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5483,145 +5561,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>632</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>633</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>634</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>635</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>636</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>637</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>638</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>639</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>640</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>641</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>642</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>643</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>644</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -5641,12 +5719,13 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
@@ -5654,48 +5733,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>517</v>
+        <v>398</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5712,90 +5791,90 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>215</v>
+        <v>623</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>624</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>228</v>
+        <v>625</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>229</v>
+        <v>627</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>233</v>
+        <v>631</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>234</v>
+        <v>632</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>235</v>
+        <v>633</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>236</v>
+        <v>634</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>237</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>622</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>467</v>
+        <v>626</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>238</v>
+        <v>628</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>240</v>
+        <v>626</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>537</v>
+        <v>408</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>632</v>
+        <v>503</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>452</v>
+        <v>347</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5809,10 +5888,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>633</v>
+        <v>504</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>453</v>
+        <v>348</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5821,25 +5900,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>364</v>
+        <v>260</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>657</v>
+        <v>528</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>542</v>
+        <v>413</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>454</v>
+        <v>349</v>
       </c>
       <c r="M6" s="1">
         <v>2</v>
@@ -5847,7 +5926,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>645</v>
+        <v>516</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5858,7 +5937,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>646</v>
+        <v>517</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -5869,7 +5948,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>647</v>
+        <v>518</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -5880,7 +5959,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>648</v>
+        <v>519</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -5891,7 +5970,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>649</v>
+        <v>520</v>
       </c>
       <c r="D11" s="1">
         <v>15</v>
@@ -5902,7 +5981,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>650</v>
+        <v>521</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -5913,7 +5992,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>651</v>
+        <v>522</v>
       </c>
       <c r="D13" s="1">
         <v>25</v>
@@ -5924,7 +6003,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>652</v>
+        <v>523</v>
       </c>
       <c r="D14" s="1">
         <v>25</v>
@@ -5935,7 +6014,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>653</v>
+        <v>524</v>
       </c>
       <c r="D15" s="1">
         <v>1.1000000000000001</v>
@@ -5946,7 +6025,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>654</v>
+        <v>525</v>
       </c>
       <c r="D16" s="1">
         <v>10.1</v>
@@ -5957,7 +6036,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>655</v>
+        <v>526</v>
       </c>
       <c r="D17" s="1">
         <v>20.100000000000001</v>
@@ -5968,7 +6047,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>656</v>
+        <v>527</v>
       </c>
       <c r="D18" s="1">
         <v>20.100000000000001</v>
@@ -5992,50 +6071,52 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6049,72 +6130,72 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>637</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>638</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>141</v>
+        <v>639</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>142</v>
+        <v>640</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>229</v>
+        <v>627</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>236</v>
+        <v>634</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>244</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>636</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>245</v>
+        <v>628</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>246</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>658</v>
+        <v>529</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>350</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -6129,18 +6210,19 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="I5" t="s">
-        <v>456</v>
+        <v>351</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>659</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6152,41 +6234,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>520</v>
+        <v>399</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>523</v>
+        <v>402</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>524</v>
+        <v>403</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>525</v>
+        <v>404</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>526</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6198,57 +6280,57 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>527</v>
+        <v>644</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>528</v>
+        <v>645</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>530</v>
+        <v>647</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>531</v>
+        <v>648</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>532</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>533</v>
+        <v>643</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>659</v>
+        <v>530</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -6283,11 +6365,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -6295,33 +6377,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>517</v>
+        <v>398</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6333,60 +6415,60 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>637</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>135</v>
+        <v>638</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>229</v>
+        <v>627</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>236</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>650</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>245</v>
+        <v>651</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>661</v>
+        <v>532</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -6395,21 +6477,21 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>660</v>
+        <v>531</v>
       </c>
       <c r="H5" t="s">
-        <v>458</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>662</v>
+        <v>533</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -6418,15 +6500,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>663</v>
+        <v>534</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>461</v>
+        <v>356</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -6435,15 +6517,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>664</v>
+        <v>535</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>462</v>
+        <v>357</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -6452,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>460</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6473,34 +6555,34 @@
     <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6510,81 +6592,81 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>653</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>631</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>235</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>652</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>622</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>240</v>
+        <v>626</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>537</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>665</v>
+        <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>463</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>666</v>
+        <v>537</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>665</v>
+        <v>536</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>667</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>665</v>
+        <v>536</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>668</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>665</v>
+        <v>536</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>669</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -6604,31 +6686,31 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6637,48 +6719,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>551</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>549</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>552</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>593</v>
+        <v>464</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>594</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6699,41 +6781,42 @@
     <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6745,143 +6828,143 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>653</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>154</v>
+        <v>655</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>153</v>
+        <v>657</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>233</v>
+        <v>631</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>235</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>155</v>
+        <v>654</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>622</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>156</v>
+        <v>656</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>156</v>
+        <v>656</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>240</v>
+        <v>626</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>537</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>637</v>
+        <v>508</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>649</v>
+        <v>520</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>637</v>
+        <v>508</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>650</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>637</v>
+        <v>508</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>651</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>637</v>
+        <v>508</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>652</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>638</v>
+        <v>509</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>653</v>
+        <v>524</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>255</v>
+        <v>168</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>638</v>
+        <v>509</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>654</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>638</v>
+        <v>509</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>655</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>638</v>
+        <v>509</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>656</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -6899,53 +6982,54 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="9" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6960,78 +7044,78 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>164</v>
+        <v>659</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>165</v>
+        <v>660</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>162</v>
+        <v>661</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>163</v>
+        <v>662</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>154</v>
+        <v>655</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>153</v>
+        <v>657</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>233</v>
+        <v>631</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>235</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>658</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>156</v>
+        <v>656</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>156</v>
+        <v>656</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>240</v>
+        <v>626</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>541</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>670</v>
+        <v>541</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>464</v>
+        <v>359</v>
       </c>
       <c r="D5" s="1">
         <v>1.7</v>
@@ -7046,24 +7130,24 @@
         <v>4.7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>671</v>
+        <v>542</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>465</v>
+        <v>360</v>
       </c>
       <c r="D6" s="1">
         <v>1.71</v>
@@ -7078,21 +7162,21 @@
         <v>4.71</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>672</v>
+        <v>543</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>466</v>
+        <v>361</v>
       </c>
       <c r="D7" s="1">
         <v>1.72</v>
@@ -7107,13 +7191,13 @@
         <v>4.72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7130,33 +7214,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>534</v>
+        <v>406</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7165,61 +7249,61 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>663</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>230</v>
+        <v>665</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>231</v>
+        <v>667</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>239</v>
+        <v>664</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>247</v>
+        <v>666</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>657</v>
+        <v>528</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>511</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>660</v>
+        <v>531</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -7238,142 +7322,142 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>512</v>
+        <v>395</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>513</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>514</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>515</v>
+        <v>668</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>535</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>673</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>594</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>617</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>618</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>619</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>620</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>621</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>622</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>623</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>624</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -7391,30 +7475,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>673</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7422,50 +7506,50 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>126</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>671</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>673</v>
+        <v>544</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>378</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>369</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>594</v>
+        <v>465</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>483</v>
+        <v>377</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>370</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7493,78 +7577,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>378</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>544</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>511</v>
+        <v>394</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>545</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -7593,78 +7677,78 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>539</v>
+        <v>410</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>378</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>540</v>
+        <v>411</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>538</v>
+        <v>409</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>542</v>
+        <v>413</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>545</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>545</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -7685,39 +7769,39 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7728,82 +7812,82 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>553</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>555</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>552</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>554</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -7832,30 +7916,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>536</v>
+        <v>407</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7866,115 +7950,115 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>406</v>
+        <v>301</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>407</v>
+        <v>302</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>597</v>
+        <v>468</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>598</v>
+        <v>469</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>599</v>
+        <v>470</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>600</v>
+        <v>471</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>601</v>
+        <v>472</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
-        <v>602</v>
+        <v>473</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8003,35 +8087,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -8039,74 +8123,74 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>49</v>
+        <v>560</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>548</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>559</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>561</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>550</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>603</v>
+        <v>474</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>594</v>
+        <v>465</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>604</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>409</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -8136,33 +8220,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8174,66 +8258,66 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>564</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>566</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>568</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>570</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>561</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>565</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>567</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>569</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>603</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -8242,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -8269,24 +8353,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8295,45 +8379,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>551</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>75</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>567</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>552</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -8363,76 +8447,76 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>559</v>
+        <v>430</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>563</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>604</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>411</v>
+        <v>306</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>606</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
